--- a/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3872,7 +3873,6 @@
           <t>交银稳健配置混合H</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>84.34</t>
@@ -3887,6 +3887,1312 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0950</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8867</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519690</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7522</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003961</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7475</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001182</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安心回馈混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5780</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4429</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010328</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003882</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2705</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2289</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003839</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1959</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009217</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达瑞程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1546</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0936</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>56.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达瑞弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>26.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003840</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>易方达瑞通灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>26.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>79.14</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0284</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001264</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010329</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时荣华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009218</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时荣丰回报三年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002327</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>960017</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银稳健配置混合H</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5199,4 +5200,1390 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>126.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2156</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0598</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161721</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商沪深300地产等权重指数</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4835</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3753</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1925</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1730</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰产业整合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>210010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>210011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金鹰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512530</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信沪深300红利ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>25.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>501072</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国金标普中国A股低波红利指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6586,4 +6587,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>35</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>49</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6595,7 +6596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6606,17 +6607,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6626,14 +6647,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.6</v>
+          <t>002601</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券价值精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4374</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6642,14 +6685,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>33</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.97</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3118</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -6658,14 +6723,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.41</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9870</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6674,13 +6761,987 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6769</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519185</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5843</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4267</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3658</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009499</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519191</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1381</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>万家宏观择时多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009755</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城安鑫回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>44.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>26</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>35</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>49</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>21.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7640,7 +7641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7651,17 +7652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7671,14 +7692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>26</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.85</v>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.93</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6455</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7687,14 +7730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>35</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.6</v>
+          <t>162607</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城资源垄断混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2377</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -7703,14 +7768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.97</v>
+          <t>000772</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中国回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9472</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -7719,14 +7806,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>19.41</v>
+          <t>512200</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5812</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -7735,13 +7844,1801 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>007944</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢乾元三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5570</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005711</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>永赢惠添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5479</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3441</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>240004</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝动力组合混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002989</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通通乾研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011203</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160218</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰国证房地产行业指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信内生动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>020018</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国泰金鹿混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1086</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008382</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>融通产业趋势股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160628</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800地产指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0967</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003413</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新经济沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0487</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515060</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证全指房地产ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001470</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>融通通鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>30.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002049</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>融通新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002605</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>融通新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>26.95</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>69.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008837</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通通益混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010646</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011204</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>永赢惠添益混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>61.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>519022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰金泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004913</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010647</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>融通价值趋势混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004914</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券聚瑞混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>32.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>49</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>21.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9521,7 +9522,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9532,17 +9533,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9552,14 +9573,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.029999999999999</v>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治财富增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>70.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -9568,14 +9611,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.85</v>
+          <t>001614</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方区域发展混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -9584,14 +9649,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.029999999999999</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="5">
@@ -9600,14 +9771,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D5" t="n">
-        <v>7.97</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="6">
@@ -9616,14 +9787,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" t="n">
-        <v>19.41</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="7">
@@ -9632,13 +9803,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>21.5</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000656-金科股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>9.029999999999999</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>7.85</v>
+        <v>9.029999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
-        <v>11.6</v>
+        <v>7.85</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D6" t="n">
-        <v>7.97</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D7" t="n">
-        <v>19.41</v>
+        <v>7.97</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>49</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>21.5</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2649,7 +2760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3693,7 +3804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5079,7 +5190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6385,7 +6496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7916,7 +8027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
